--- a/biology/Botanique/Rubinette/Rubinette.xlsx
+++ b/biology/Botanique/Rubinette/Rubinette.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Rubinette est le nom d'un cultivar de pommier domestique.
 </t>
@@ -511,10 +523,12 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un croisement de Golden Delicious × Cox's Orange Pippin. La variété est résistante aux maladies.
-Elle a été créée vers 1950, à Rafz (nord de Zurich) en Suisse et c'est également dans ce pays qu'elle a été développée par Walter Hauenstein entre 1964 et 1982[1].
+Elle a été créée vers 1950, à Rafz (nord de Zurich) en Suisse et c'est également dans ce pays qu'elle a été développée par Walter Hauenstein entre 1964 et 1982.
 </t>
         </is>
       </c>
@@ -543,14 +557,16 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La pomme est striée de rouge sur fond orange.
 L'arbre est d'une vigueur modeste, son développement et sa production peuvent être améliorés par greffage sur MM106 ou mieux M9.
-Les fruits n'atteignent guère qu'une taille très moyenne. Un éclaircissage des fruits est recommandé : un seul par bouquet[2].
-Le fruit s'est taillé une réputation de pomme très goûteuse, croquante[1].
+Les fruits n'atteignent guère qu'une taille très moyenne. Un éclaircissage des fruits est recommandé : un seul par bouquet.
+Le fruit s'est taillé une réputation de pomme très goûteuse, croquante.
 Sa faible teneur en vitamine C, sa conservation de un à deux mois et sa résistance au gel la caractérisent particulièrement.
-Elle est relativement sensible au feu bactérien et au mildiou[1].
+Elle est relativement sensible au feu bactérien et au mildiou.
 </t>
         </is>
       </c>
@@ -579,7 +595,9 @@
           <t>Pollinisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Variété diploïde
 Groupe de floraison : B
